--- a/Input/Excel Task/UserDetails.xlsx
+++ b/Input/Excel Task/UserDetails.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadha\Documents\UiPath\UiPath Tutorials\Input\Excel Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4CB4F6-07DB-4A87-A76D-AFA0BAABC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D77D48B-166D-4322-8A4C-055AD31AF094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Firstname</t>
   </si>
@@ -39,28 +39,43 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Order</t>
+  </si>
+  <si>
     <t>Ashish</t>
   </si>
   <si>
     <t>Jadhav</t>
   </si>
   <si>
-    <t>Ram</t>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Google Pixel 7 pro</t>
   </si>
   <si>
     <t>Patil</t>
   </si>
   <si>
+    <t>Apple 15 Pro</t>
+  </si>
+  <si>
     <t>Pravin</t>
   </si>
   <si>
+    <t>Samsun S21 FE</t>
+  </si>
+  <si>
     <t>Kiran</t>
   </si>
   <si>
     <t>More</t>
   </si>
   <si>
-    <t>Complete</t>
+    <t>OnePluas 11 pro</t>
+  </si>
+  <si>
+    <t>Pranjali</t>
   </si>
 </sst>
 </file>
@@ -76,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +101,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,10 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,20 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,62 +458,80 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>9594939291</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>9594939290</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>9594939289</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>9594939288</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
